--- a/src/Regras.xlsx
+++ b/src/Regras.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -625,9 +625,78 @@
         <v>N</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>192.168.5.100</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>192.168.10.50</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v>8080</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <v>TCP</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>192.168.5.100</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>192.168.10.50</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v>TCP</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>8080</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v>P</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>192.168.5.102</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>*</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v>UDP</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>55600</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>9000</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <v>N</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I15"/>
   </ignoredErrors>
 </worksheet>
 </file>